--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Desktop/spawning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-oyster-oa/data/2017-07-30-pacific-oyster-larvae/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Tote</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +516,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,35 +529,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42947</v>
       </c>
@@ -568,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
@@ -582,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42947</v>
       </c>
@@ -596,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42947</v>
       </c>
@@ -610,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42947</v>
       </c>
@@ -624,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42947</v>
       </c>
@@ -638,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42947</v>
       </c>
@@ -652,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42947</v>
       </c>
@@ -666,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42947</v>
       </c>
@@ -680,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42947</v>
       </c>
@@ -694,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42947</v>
       </c>
@@ -708,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42947</v>
       </c>
@@ -722,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42947</v>
       </c>
@@ -736,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42947</v>
       </c>
@@ -750,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42947</v>
       </c>
@@ -1223,6 +1199,342 @@
         <v>24.6</v>
       </c>
       <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B72">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
         <v>9</v>
       </c>
     </row>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A71" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,6 +1538,342 @@
         <v>9</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B92">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B93">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B94">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B95">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -43,12 +43,21 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Position after water change</t>
+  </si>
+  <si>
+    <t>Tote 7 broke overnight, replaced with a new tote that only holds 2 buckets. Moved one bucket to Tote 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +89,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +114,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,13 +148,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -155,6 +174,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -171,6 +191,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,18 +526,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A71" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A144" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +551,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42947</v>
       </c>
@@ -544,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
@@ -558,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42947</v>
       </c>
@@ -572,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42947</v>
       </c>
@@ -586,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42947</v>
       </c>
@@ -600,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42947</v>
       </c>
@@ -614,7 +639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42947</v>
       </c>
@@ -628,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42947</v>
       </c>
@@ -642,7 +667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42947</v>
       </c>
@@ -656,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42947</v>
       </c>
@@ -670,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42947</v>
       </c>
@@ -684,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42947</v>
       </c>
@@ -698,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42947</v>
       </c>
@@ -712,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42947</v>
       </c>
@@ -726,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42947</v>
       </c>
@@ -1872,6 +1897,1020 @@
       </c>
       <c r="D97">
         <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B111">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B114">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B115">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B116">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B118">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B119">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B120">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B121">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B124" s="3">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B125" s="3">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B128" s="3">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B129" s="3">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B130" s="3">
+        <v>9</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B131" s="3">
+        <v>10</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B132" s="3">
+        <v>11</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B133" s="3">
+        <v>12</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B134" s="3">
+        <v>13</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B135" s="3">
+        <v>14</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B136" s="3">
+        <v>15</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B137" s="3">
+        <v>16</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B138" s="3">
+        <v>17</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B139" s="3">
+        <v>18</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B140" s="3">
+        <v>19</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B141" s="3">
+        <v>20</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B142" s="3">
+        <v>21</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B143" s="3">
+        <v>22</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B144" s="3">
+        <v>23</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B145" s="3">
+        <v>24</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B147" s="3">
+        <v>2</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B148" s="3">
+        <v>3</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B149" s="3">
+        <v>4</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B150" s="3">
+        <v>5</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B151" s="3">
+        <v>6</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B152" s="3">
+        <v>7</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B153" s="3">
+        <v>8</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B154" s="3">
+        <v>9</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B155" s="3">
+        <v>10</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B156" s="3">
+        <v>11</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B157" s="3">
+        <v>12</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B158" s="3">
+        <v>13</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B159" s="3">
+        <v>14</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B160" s="3">
+        <v>15</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B161" s="3">
+        <v>16</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B162" s="3">
+        <v>17</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B163" s="3">
+        <v>18</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B164" s="3">
+        <v>19</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B165" s="3">
+        <v>20</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B166" s="3">
+        <v>21</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B167" s="3">
+        <v>22</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B168" s="3">
+        <v>23</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B169" s="3">
+        <v>24</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-31-Temperature.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Tote 7 broke overnight, replaced with a new tote that only holds 2 buckets. Moved one bucket to Tote 1</t>
+  </si>
+  <si>
+    <t>Didn't record tote positions</t>
   </si>
 </sst>
 </file>
@@ -114,8 +117,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -157,7 +162,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -175,6 +180,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -192,6 +198,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A144" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A256" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2913,6 +2920,1692 @@
         <v>3</v>
       </c>
     </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B171" s="3">
+        <v>2</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B172" s="3">
+        <v>3</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B173" s="3">
+        <v>4</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B175" s="3">
+        <v>6</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B176" s="3">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B177" s="3">
+        <v>8</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B178" s="3">
+        <v>9</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B179" s="3">
+        <v>10</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B180" s="3">
+        <v>11</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B181" s="3">
+        <v>12</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B182" s="3">
+        <v>13</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B183" s="3">
+        <v>14</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B184" s="3">
+        <v>15</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B185" s="3">
+        <v>16</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B186" s="3">
+        <v>17</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B187" s="3">
+        <v>18</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B188" s="3">
+        <v>19</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B189" s="3">
+        <v>20</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B190" s="3">
+        <v>21</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B191" s="3">
+        <v>22</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B192" s="3">
+        <v>23</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B193" s="3">
+        <v>24</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B195" s="3">
+        <v>2</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B196" s="3">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B197" s="3">
+        <v>4</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B199" s="3">
+        <v>6</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B200" s="3">
+        <v>7</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B201" s="3">
+        <v>8</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B202" s="3">
+        <v>9</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B203" s="3">
+        <v>10</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B204" s="3">
+        <v>11</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B205" s="3">
+        <v>12</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B206" s="3">
+        <v>13</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B207" s="3">
+        <v>14</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B208" s="3">
+        <v>15</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B209" s="3">
+        <v>16</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B210" s="3">
+        <v>17</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B211" s="3">
+        <v>18</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B212" s="3">
+        <v>19</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B213" s="3">
+        <v>20</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B214" s="3">
+        <v>21</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B215" s="3">
+        <v>22</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B216" s="3">
+        <v>23</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B217" s="3">
+        <v>24</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B219" s="3">
+        <v>2</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B220" s="3">
+        <v>3</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B221" s="3">
+        <v>4</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B223" s="3">
+        <v>6</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B224" s="3">
+        <v>7</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B225" s="3">
+        <v>8</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B226" s="3">
+        <v>9</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B227" s="3">
+        <v>10</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B228" s="3">
+        <v>11</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B229" s="3">
+        <v>12</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B230" s="3">
+        <v>13</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B231" s="3">
+        <v>14</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B232" s="3">
+        <v>15</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B233" s="3">
+        <v>16</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B234" s="3">
+        <v>17</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B235" s="3">
+        <v>18</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B236" s="3">
+        <v>19</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B237" s="3">
+        <v>20</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B238" s="3">
+        <v>21</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B239" s="3">
+        <v>22</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B240" s="3">
+        <v>23</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B241" s="3">
+        <v>24</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B243" s="3">
+        <v>2</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B244" s="3">
+        <v>3</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B245" s="3">
+        <v>4</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B246" s="3">
+        <v>5</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B247" s="3">
+        <v>6</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B248" s="3">
+        <v>7</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B249" s="3">
+        <v>8</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B250" s="3">
+        <v>9</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B251" s="3">
+        <v>10</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B252" s="3">
+        <v>11</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B253" s="3">
+        <v>12</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B254" s="3">
+        <v>13</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B255" s="3">
+        <v>14</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B256" s="3">
+        <v>15</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B257" s="3">
+        <v>16</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B258" s="3">
+        <v>17</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B259" s="3">
+        <v>18</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B260" s="3">
+        <v>19</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B261" s="3">
+        <v>20</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B262" s="3">
+        <v>21</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B263" s="3">
+        <v>22</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B264" s="3">
+        <v>23</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B265" s="3">
+        <v>24</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B266" s="3">
+        <v>1</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B267" s="3">
+        <v>2</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B268" s="3">
+        <v>3</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B269" s="3">
+        <v>4</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B270" s="3">
+        <v>5</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B271" s="3">
+        <v>6</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B272" s="3">
+        <v>7</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B273" s="3">
+        <v>8</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B274" s="3">
+        <v>9</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B275" s="3">
+        <v>10</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B276" s="3">
+        <v>11</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B277" s="3">
+        <v>12</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B278" s="3">
+        <v>13</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B279" s="3">
+        <v>14</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B280" s="3">
+        <v>15</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B281" s="3">
+        <v>16</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B282" s="3">
+        <v>17</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B283" s="3">
+        <v>18</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B284" s="3">
+        <v>19</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B285" s="3">
+        <v>20</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B286" s="3">
+        <v>21</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B287" s="3">
+        <v>22</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B288" s="3">
+        <v>23</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B289" s="3">
+        <v>24</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
